--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.622045333333333</v>
+        <v>3.062008333333333</v>
       </c>
       <c r="H2">
-        <v>7.866136</v>
+        <v>9.186025000000001</v>
       </c>
       <c r="I2">
-        <v>0.6684668333244246</v>
+        <v>0.762008591445137</v>
       </c>
       <c r="J2">
-        <v>0.6684668333244246</v>
+        <v>0.7620085914451371</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N2">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q2">
-        <v>0.4403043405546667</v>
+        <v>0.6764588810000001</v>
       </c>
       <c r="R2">
-        <v>3.962739064992</v>
+        <v>6.088129929000001</v>
       </c>
       <c r="S2">
-        <v>0.02868613634704586</v>
+        <v>0.05157802007732779</v>
       </c>
       <c r="T2">
-        <v>0.02868613634704587</v>
+        <v>0.05157802007732781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.622045333333333</v>
+        <v>3.062008333333333</v>
       </c>
       <c r="H3">
-        <v>7.866136</v>
+        <v>9.186025000000001</v>
       </c>
       <c r="I3">
-        <v>0.6684668333244246</v>
+        <v>0.762008591445137</v>
       </c>
       <c r="J3">
-        <v>0.6684668333244246</v>
+        <v>0.7620085914451371</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P3">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q3">
-        <v>1.658573027569778</v>
+        <v>1.936871329911111</v>
       </c>
       <c r="R3">
-        <v>14.927157248128</v>
+        <v>17.4318419692</v>
       </c>
       <c r="S3">
-        <v>0.1080571950539111</v>
+        <v>0.1476807994503303</v>
       </c>
       <c r="T3">
-        <v>0.1080571950539111</v>
+        <v>0.1476807994503304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.622045333333333</v>
+        <v>3.062008333333333</v>
       </c>
       <c r="H4">
-        <v>7.866136</v>
+        <v>9.186025000000001</v>
       </c>
       <c r="I4">
-        <v>0.6684668333244246</v>
+        <v>0.762008591445137</v>
       </c>
       <c r="J4">
-        <v>0.6684668333244246</v>
+        <v>0.7620085914451371</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N4">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q4">
-        <v>0.6713231407084446</v>
+        <v>0.4318115598527778</v>
       </c>
       <c r="R4">
-        <v>6.041908266376001</v>
+        <v>3.886304038675001</v>
       </c>
       <c r="S4">
-        <v>0.04373717307222078</v>
+        <v>0.03292437416267553</v>
       </c>
       <c r="T4">
-        <v>0.04373717307222078</v>
+        <v>0.03292437416267555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.622045333333333</v>
+        <v>3.062008333333333</v>
       </c>
       <c r="H5">
-        <v>7.866136</v>
+        <v>9.186025000000001</v>
       </c>
       <c r="I5">
-        <v>0.6684668333244246</v>
+        <v>0.762008591445137</v>
       </c>
       <c r="J5">
-        <v>0.6684668333244246</v>
+        <v>0.7620085914451371</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N5">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q5">
-        <v>2.055630226411556</v>
+        <v>0.3520605321416667</v>
       </c>
       <c r="R5">
-        <v>18.500672037704</v>
+        <v>3.168544789275</v>
       </c>
       <c r="S5">
-        <v>0.133925749811293</v>
+        <v>0.02684359050530018</v>
       </c>
       <c r="T5">
-        <v>0.133925749811293</v>
+        <v>0.0268435905053002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.622045333333333</v>
+        <v>3.062008333333333</v>
       </c>
       <c r="H6">
-        <v>7.866136</v>
+        <v>9.186025000000001</v>
       </c>
       <c r="I6">
-        <v>0.6684668333244246</v>
+        <v>0.762008591445137</v>
       </c>
       <c r="J6">
-        <v>0.6684668333244246</v>
+        <v>0.7620085914451371</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N6">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O6">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P6">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q6">
-        <v>4.884315456404444</v>
+        <v>6.224813898322223</v>
       </c>
       <c r="R6">
-        <v>43.95883910764</v>
+        <v>56.0233250849</v>
       </c>
       <c r="S6">
-        <v>0.3182165748534236</v>
+        <v>0.4746239353834318</v>
       </c>
       <c r="T6">
-        <v>0.3182165748534237</v>
+        <v>0.474623935383432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.622045333333333</v>
+        <v>3.062008333333333</v>
       </c>
       <c r="H7">
-        <v>7.866136</v>
+        <v>9.186025000000001</v>
       </c>
       <c r="I7">
-        <v>0.6684668333244246</v>
+        <v>0.762008591445137</v>
       </c>
       <c r="J7">
-        <v>0.6684668333244246</v>
+        <v>0.7620085914451371</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N7">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O7">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P7">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q7">
-        <v>0.5501706620666666</v>
+        <v>0.3719207181916667</v>
       </c>
       <c r="R7">
-        <v>4.9515359586</v>
+        <v>3.347286463725001</v>
       </c>
       <c r="S7">
-        <v>0.03584400418653021</v>
+        <v>0.02835787186607127</v>
       </c>
       <c r="T7">
-        <v>0.03584400418653021</v>
+        <v>0.02835787186607128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,43 +918,43 @@
         <v>0.03209566666666667</v>
       </c>
       <c r="H8">
-        <v>0.096287</v>
+        <v>0.09628700000000001</v>
       </c>
       <c r="I8">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312442</v>
       </c>
       <c r="J8">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312444</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N8">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q8">
-        <v>0.005389632729333333</v>
+        <v>0.00709057468</v>
       </c>
       <c r="R8">
-        <v>0.048506694564</v>
+        <v>0.06381517212000001</v>
       </c>
       <c r="S8">
-        <v>0.0003511383493049198</v>
+        <v>0.0005406356742100811</v>
       </c>
       <c r="T8">
-        <v>0.0003511383493049199</v>
+        <v>0.0005406356742100813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>0.03209566666666667</v>
       </c>
       <c r="H9">
-        <v>0.096287</v>
+        <v>0.09628700000000001</v>
       </c>
       <c r="I9">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312442</v>
       </c>
       <c r="J9">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312444</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P9">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q9">
         <v>0.02030209255288889</v>
@@ -1013,10 +1013,10 @@
         <v>0.182718832976</v>
       </c>
       <c r="S9">
-        <v>0.001322695557279449</v>
+        <v>0.00154797544494751</v>
       </c>
       <c r="T9">
-        <v>0.001322695557279449</v>
+        <v>0.001547975444947511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>0.03209566666666667</v>
       </c>
       <c r="H10">
-        <v>0.096287</v>
+        <v>0.09628700000000001</v>
       </c>
       <c r="I10">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312442</v>
       </c>
       <c r="J10">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312444</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N10">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q10">
-        <v>0.008217464235222223</v>
+        <v>0.004526205803222222</v>
       </c>
       <c r="R10">
-        <v>0.07395717811700001</v>
+        <v>0.04073585222900001</v>
       </c>
       <c r="S10">
-        <v>0.0005353735536233955</v>
+        <v>0.0003451100138527316</v>
       </c>
       <c r="T10">
-        <v>0.0005353735536233955</v>
+        <v>0.0003451100138527318</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,43 +1104,43 @@
         <v>0.03209566666666667</v>
       </c>
       <c r="H11">
-        <v>0.096287</v>
+        <v>0.09628700000000001</v>
       </c>
       <c r="I11">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312442</v>
       </c>
       <c r="J11">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312444</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N11">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q11">
-        <v>0.02516235005477778</v>
+        <v>0.003690263466333334</v>
       </c>
       <c r="R11">
-        <v>0.226461150493</v>
+        <v>0.033212371197</v>
       </c>
       <c r="S11">
-        <v>0.001639344739536663</v>
+        <v>0.0002813718446209148</v>
       </c>
       <c r="T11">
-        <v>0.001639344739536663</v>
+        <v>0.0002813718446209149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>0.03209566666666667</v>
       </c>
       <c r="H12">
-        <v>0.096287</v>
+        <v>0.09628700000000001</v>
       </c>
       <c r="I12">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312442</v>
       </c>
       <c r="J12">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312444</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N12">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O12">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P12">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q12">
-        <v>0.05978743341722222</v>
+        <v>0.06524787988577778</v>
       </c>
       <c r="R12">
-        <v>0.538086900755</v>
+        <v>0.5872309189720001</v>
       </c>
       <c r="S12">
-        <v>0.003895193185435848</v>
+        <v>0.00497496086351436</v>
       </c>
       <c r="T12">
-        <v>0.003895193185435849</v>
+        <v>0.004974960863514362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>0.03209566666666667</v>
       </c>
       <c r="H13">
-        <v>0.096287</v>
+        <v>0.09628700000000001</v>
       </c>
       <c r="I13">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312442</v>
       </c>
       <c r="J13">
-        <v>0.008182501037397379</v>
+        <v>0.007987298232312444</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N13">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O13">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P13">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q13">
-        <v>0.006734473258333334</v>
+        <v>0.003898435960333334</v>
       </c>
       <c r="R13">
-        <v>0.060610259325</v>
+        <v>0.03508592364300001</v>
       </c>
       <c r="S13">
-        <v>0.000438755652217103</v>
+        <v>0.0002972443911668436</v>
       </c>
       <c r="T13">
-        <v>0.0004387556522171031</v>
+        <v>0.0002972443911668437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01979166666666667</v>
+        <v>0.02852133333333333</v>
       </c>
       <c r="H14">
-        <v>0.059375</v>
+        <v>0.085564</v>
       </c>
       <c r="I14">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253532</v>
       </c>
       <c r="J14">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253533</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N14">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q14">
-        <v>0.003323495833333333</v>
+        <v>0.00630093296</v>
       </c>
       <c r="R14">
-        <v>0.0299114625</v>
+        <v>0.05670839664000001</v>
       </c>
       <c r="S14">
-        <v>0.0002165280826069938</v>
+        <v>0.000480427792205712</v>
       </c>
       <c r="T14">
-        <v>0.0002165280826069938</v>
+        <v>0.0004804277922057121</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01979166666666667</v>
+        <v>0.02852133333333333</v>
       </c>
       <c r="H15">
-        <v>0.059375</v>
+        <v>0.085564</v>
       </c>
       <c r="I15">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253532</v>
       </c>
       <c r="J15">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253533</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P15">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q15">
-        <v>0.01251920555555555</v>
+        <v>0.01804115038577778</v>
       </c>
       <c r="R15">
-        <v>0.11267285</v>
+        <v>0.162370353472</v>
       </c>
       <c r="S15">
-        <v>0.0008156350152509402</v>
+        <v>0.001375585187735507</v>
       </c>
       <c r="T15">
-        <v>0.0008156350152509403</v>
+        <v>0.001375585187735508</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01979166666666667</v>
+        <v>0.02852133333333333</v>
       </c>
       <c r="H16">
-        <v>0.059375</v>
+        <v>0.085564</v>
       </c>
       <c r="I16">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253532</v>
       </c>
       <c r="J16">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253533</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N16">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q16">
-        <v>0.005067267013888889</v>
+        <v>0.004022144976444444</v>
       </c>
       <c r="R16">
-        <v>0.045605403125</v>
+        <v>0.036199304788</v>
       </c>
       <c r="S16">
-        <v>0.0003301359970337544</v>
+        <v>0.0003066768434502594</v>
       </c>
       <c r="T16">
-        <v>0.0003301359970337544</v>
+        <v>0.0003066768434502595</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.01979166666666667</v>
+        <v>0.02852133333333333</v>
       </c>
       <c r="H17">
-        <v>0.059375</v>
+        <v>0.085564</v>
       </c>
       <c r="I17">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253532</v>
       </c>
       <c r="J17">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253533</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N17">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q17">
-        <v>0.01551626423611111</v>
+        <v>0.003279297342666666</v>
       </c>
       <c r="R17">
-        <v>0.139646378125</v>
+        <v>0.029513676084</v>
       </c>
       <c r="S17">
-        <v>0.001010895488591288</v>
+        <v>0.0002500368742732036</v>
       </c>
       <c r="T17">
-        <v>0.001010895488591288</v>
+        <v>0.0002500368742732037</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.01979166666666667</v>
+        <v>0.02852133333333333</v>
       </c>
       <c r="H18">
-        <v>0.059375</v>
+        <v>0.085564</v>
       </c>
       <c r="I18">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253532</v>
       </c>
       <c r="J18">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253533</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N18">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O18">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P18">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q18">
-        <v>0.03686768576388889</v>
+        <v>0.05798155093155555</v>
       </c>
       <c r="R18">
-        <v>0.331809171875</v>
+        <v>0.521833958384</v>
       </c>
       <c r="S18">
-        <v>0.00240195556394169</v>
+        <v>0.004420924437626499</v>
       </c>
       <c r="T18">
-        <v>0.00240195556394169</v>
+        <v>0.004420924437626501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.01979166666666667</v>
+        <v>0.02852133333333333</v>
       </c>
       <c r="H19">
-        <v>0.059375</v>
+        <v>0.085564</v>
       </c>
       <c r="I19">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253532</v>
       </c>
       <c r="J19">
-        <v>0.005045707095407161</v>
+        <v>0.007097792910253533</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N19">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O19">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P19">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q19">
-        <v>0.004152786458333333</v>
+        <v>0.003464286710666667</v>
       </c>
       <c r="R19">
-        <v>0.037375078125</v>
+        <v>0.031178580396</v>
       </c>
       <c r="S19">
-        <v>0.0002705569479824949</v>
+        <v>0.0002641417749623501</v>
       </c>
       <c r="T19">
-        <v>0.000270556947982495</v>
+        <v>0.0002641417749623502</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5306453333333333</v>
+        <v>0.1165276666666667</v>
       </c>
       <c r="H20">
-        <v>1.591936</v>
+        <v>0.349583</v>
       </c>
       <c r="I20">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909355</v>
       </c>
       <c r="J20">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909356</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N20">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q20">
-        <v>0.08910808695466665</v>
+        <v>0.02574329212</v>
       </c>
       <c r="R20">
-        <v>0.801972782592</v>
+        <v>0.23168962908</v>
       </c>
       <c r="S20">
-        <v>0.005805454310956586</v>
+        <v>0.001962851069172192</v>
       </c>
       <c r="T20">
-        <v>0.005805454310956587</v>
+        <v>0.001962851069172193</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5306453333333333</v>
+        <v>0.1165276666666667</v>
       </c>
       <c r="H21">
-        <v>1.591936</v>
+        <v>0.349583</v>
       </c>
       <c r="I21">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909355</v>
       </c>
       <c r="J21">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909356</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.897648</v>
       </c>
       <c r="O21">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P21">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q21">
-        <v>0.3356593518364444</v>
+        <v>0.0737094978648889</v>
       </c>
       <c r="R21">
-        <v>3.020934166528</v>
+        <v>0.6633854807840001</v>
       </c>
       <c r="S21">
-        <v>0.02186844199812245</v>
+        <v>0.005620134597308937</v>
       </c>
       <c r="T21">
-        <v>0.02186844199812246</v>
+        <v>0.005620134597308939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5306453333333333</v>
+        <v>0.1165276666666667</v>
       </c>
       <c r="H22">
-        <v>1.591936</v>
+        <v>0.349583</v>
       </c>
       <c r="I22">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909355</v>
       </c>
       <c r="J22">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909356</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N22">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q22">
-        <v>0.1358613015751111</v>
+        <v>0.01643300345122222</v>
       </c>
       <c r="R22">
-        <v>1.222751714176</v>
+        <v>0.147897031061</v>
       </c>
       <c r="S22">
-        <v>0.008851459007560873</v>
+        <v>0.001252968666306765</v>
       </c>
       <c r="T22">
-        <v>0.008851459007560873</v>
+        <v>0.001252968666306766</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5306453333333333</v>
+        <v>0.1165276666666667</v>
       </c>
       <c r="H23">
-        <v>1.591936</v>
+        <v>0.349583</v>
       </c>
       <c r="I23">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909355</v>
       </c>
       <c r="J23">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909356</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N23">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q23">
-        <v>0.4160151515448888</v>
+        <v>0.01339800153033333</v>
       </c>
       <c r="R23">
-        <v>3.744136363904</v>
+        <v>0.120582013773</v>
       </c>
       <c r="S23">
-        <v>0.02710367866149155</v>
+        <v>0.001021558606645895</v>
       </c>
       <c r="T23">
-        <v>0.02710367866149155</v>
+        <v>0.001021558606645895</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5306453333333333</v>
+        <v>0.1165276666666667</v>
       </c>
       <c r="H24">
-        <v>1.591936</v>
+        <v>0.349583</v>
       </c>
       <c r="I24">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909355</v>
       </c>
       <c r="J24">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909356</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N24">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O24">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P24">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q24">
-        <v>0.9884799360711111</v>
+        <v>0.2368912687497778</v>
       </c>
       <c r="R24">
-        <v>8.89631942464</v>
+        <v>2.132021418748</v>
       </c>
       <c r="S24">
-        <v>0.06440016054971079</v>
+        <v>0.01806226950211286</v>
       </c>
       <c r="T24">
-        <v>0.06440016054971079</v>
+        <v>0.01806226950211286</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5306453333333333</v>
+        <v>0.1165276666666667</v>
       </c>
       <c r="H25">
-        <v>1.591936</v>
+        <v>0.349583</v>
       </c>
       <c r="I25">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909355</v>
       </c>
       <c r="J25">
-        <v>0.1352832466633111</v>
+        <v>0.02899896847909356</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N25">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O25">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P25">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q25">
-        <v>0.1113426570666667</v>
+        <v>0.01415379997633334</v>
       </c>
       <c r="R25">
-        <v>1.0020839136</v>
+        <v>0.127384199787</v>
       </c>
       <c r="S25">
-        <v>0.007254052135468818</v>
+        <v>0.001079186037546904</v>
       </c>
       <c r="T25">
-        <v>0.007254052135468819</v>
+        <v>0.001079186037546904</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6984983333333333</v>
+        <v>0.7333496666666667</v>
       </c>
       <c r="H26">
-        <v>2.095495</v>
+        <v>2.200049</v>
       </c>
       <c r="I26">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="J26">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N26">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q26">
-        <v>0.1172946341266667</v>
+        <v>0.16201160836</v>
       </c>
       <c r="R26">
-        <v>1.05565170714</v>
+        <v>1.45810447524</v>
       </c>
       <c r="S26">
-        <v>0.007641827612000716</v>
+        <v>0.0123529134193631</v>
       </c>
       <c r="T26">
-        <v>0.007641827612000717</v>
+        <v>0.01235291341936311</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6984983333333333</v>
+        <v>0.7333496666666667</v>
       </c>
       <c r="H27">
-        <v>2.095495</v>
+        <v>2.200049</v>
       </c>
       <c r="I27">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="J27">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.897648</v>
       </c>
       <c r="O27">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P27">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q27">
-        <v>0.4418346550844444</v>
+        <v>0.4638798427502222</v>
       </c>
       <c r="R27">
-        <v>3.97651189576</v>
+        <v>4.174918584752</v>
       </c>
       <c r="S27">
-        <v>0.02878583741108663</v>
+        <v>0.03536948736258608</v>
       </c>
       <c r="T27">
-        <v>0.02878583741108664</v>
+        <v>0.03536948736258609</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6984983333333333</v>
+        <v>0.7333496666666667</v>
       </c>
       <c r="H28">
-        <v>2.095495</v>
+        <v>2.200049</v>
       </c>
       <c r="I28">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="J28">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N28">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q28">
-        <v>0.1788367611161111</v>
+        <v>0.1034186811425556</v>
       </c>
       <c r="R28">
-        <v>1.609530850045</v>
+        <v>0.930768130283</v>
       </c>
       <c r="S28">
-        <v>0.01165134031333469</v>
+        <v>0.007885373320039968</v>
       </c>
       <c r="T28">
-        <v>0.01165134031333469</v>
+        <v>0.00788537332003997</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6984983333333333</v>
+        <v>0.7333496666666667</v>
       </c>
       <c r="H29">
-        <v>2.095495</v>
+        <v>2.200049</v>
       </c>
       <c r="I29">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="J29">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N29">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q29">
-        <v>0.5476084905338888</v>
+        <v>0.08431834462433334</v>
       </c>
       <c r="R29">
-        <v>4.928476414805</v>
+        <v>0.7588651016189999</v>
       </c>
       <c r="S29">
-        <v>0.03567707691563118</v>
+        <v>0.006429028273665178</v>
       </c>
       <c r="T29">
-        <v>0.03567707691563118</v>
+        <v>0.006429028273665181</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6984983333333333</v>
+        <v>0.7333496666666667</v>
       </c>
       <c r="H30">
-        <v>2.095495</v>
+        <v>2.200049</v>
       </c>
       <c r="I30">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="J30">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N30">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O30">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P30">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q30">
-        <v>1.301154546186111</v>
+        <v>1.490840226560445</v>
       </c>
       <c r="R30">
-        <v>11.710390915675</v>
+        <v>13.417562039044</v>
       </c>
       <c r="S30">
-        <v>0.0847711305172546</v>
+        <v>0.1136722264980102</v>
       </c>
       <c r="T30">
-        <v>0.0847711305172546</v>
+        <v>0.1136722264980102</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6984983333333333</v>
+        <v>0.7333496666666667</v>
       </c>
       <c r="H31">
-        <v>2.095495</v>
+        <v>2.200049</v>
       </c>
       <c r="I31">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="J31">
-        <v>0.1780758566718355</v>
+        <v>0.1825007268759101</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N31">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O31">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P31">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q31">
-        <v>0.1465624127916667</v>
+        <v>0.08907485056233333</v>
       </c>
       <c r="R31">
-        <v>1.319061715125</v>
+        <v>0.801673655061</v>
       </c>
       <c r="S31">
-        <v>0.009548643902527633</v>
+        <v>0.006791698002245611</v>
       </c>
       <c r="T31">
-        <v>0.009548643902527635</v>
+        <v>0.006791698002245612</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.0194</v>
+        <v>0.04583566666666666</v>
       </c>
       <c r="H32">
-        <v>0.0582</v>
+        <v>0.137507</v>
       </c>
       <c r="I32">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729316</v>
       </c>
       <c r="J32">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729317</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N32">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q32">
-        <v>0.0032577256</v>
+        <v>0.01012601548</v>
       </c>
       <c r="R32">
-        <v>0.0293195304</v>
+        <v>0.09113413932</v>
       </c>
       <c r="S32">
-        <v>0.0002122431058143502</v>
+        <v>0.0007720791971253194</v>
       </c>
       <c r="T32">
-        <v>0.0002122431058143502</v>
+        <v>0.0007720791971253197</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.0194</v>
+        <v>0.04583566666666666</v>
       </c>
       <c r="H33">
-        <v>0.0582</v>
+        <v>0.137507</v>
       </c>
       <c r="I33">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729316</v>
       </c>
       <c r="J33">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729317</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.897648</v>
       </c>
       <c r="O33">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P33">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q33">
-        <v>0.01227145706666667</v>
+        <v>0.02899332039288888</v>
       </c>
       <c r="R33">
-        <v>0.1104431136</v>
+        <v>0.260939883536</v>
       </c>
       <c r="S33">
-        <v>0.000799494027580711</v>
+        <v>0.002210656262095582</v>
       </c>
       <c r="T33">
-        <v>0.0007994940275807111</v>
+        <v>0.002210656262095583</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.0194</v>
+        <v>0.04583566666666666</v>
       </c>
       <c r="H34">
-        <v>0.0582</v>
+        <v>0.137507</v>
       </c>
       <c r="I34">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729316</v>
       </c>
       <c r="J34">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729317</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N34">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q34">
-        <v>0.004966988466666667</v>
+        <v>0.006463852663222222</v>
       </c>
       <c r="R34">
-        <v>0.04470289620000001</v>
+        <v>0.058174673969</v>
       </c>
       <c r="S34">
-        <v>0.0003236027794082443</v>
+        <v>0.0004928499452142819</v>
       </c>
       <c r="T34">
-        <v>0.0003236027794082443</v>
+        <v>0.0004928499452142821</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.0194</v>
+        <v>0.04583566666666666</v>
       </c>
       <c r="H35">
-        <v>0.0582</v>
+        <v>0.137507</v>
       </c>
       <c r="I35">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729316</v>
       </c>
       <c r="J35">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729317</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N35">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q35">
-        <v>0.01520920553333333</v>
+        <v>0.005270047446333333</v>
       </c>
       <c r="R35">
-        <v>0.1368828498</v>
+        <v>0.047430427017</v>
       </c>
       <c r="S35">
-        <v>0.0009908903989223239</v>
+        <v>0.0004018257733472652</v>
       </c>
       <c r="T35">
-        <v>0.0009908903989223239</v>
+        <v>0.0004018257733472654</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.0194</v>
+        <v>0.04583566666666666</v>
       </c>
       <c r="H36">
-        <v>0.0582</v>
+        <v>0.137507</v>
       </c>
       <c r="I36">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729316</v>
       </c>
       <c r="J36">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729317</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N36">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O36">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P36">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q36">
-        <v>0.03613809366666667</v>
+        <v>0.09318018236577777</v>
       </c>
       <c r="R36">
-        <v>0.325242843</v>
+        <v>0.8386216412919999</v>
       </c>
       <c r="S36">
-        <v>0.002354422127518423</v>
+        <v>0.007104717599045241</v>
       </c>
       <c r="T36">
-        <v>0.002354422127518423</v>
+        <v>0.007104717599045243</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.0194</v>
+        <v>0.04583566666666666</v>
       </c>
       <c r="H37">
-        <v>0.0582</v>
+        <v>0.137507</v>
       </c>
       <c r="I37">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729316</v>
       </c>
       <c r="J37">
-        <v>0.004945855207624367</v>
+        <v>0.01140662205729317</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N37">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O37">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P37">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q37">
-        <v>0.004070605000000001</v>
+        <v>0.005567337580333333</v>
       </c>
       <c r="R37">
-        <v>0.036635445</v>
+        <v>0.050106038223</v>
       </c>
       <c r="S37">
-        <v>0.0002652027683803151</v>
+        <v>0.0004244932804654747</v>
       </c>
       <c r="T37">
-        <v>0.0002652027683803151</v>
+        <v>0.0004244932804654748</v>
       </c>
     </row>
   </sheetData>
